--- a/杭州创业办公空间_103个.xlsx
+++ b/杭州创业办公空间_103个.xlsx
@@ -4681,8 +4681,8 @@
   <sheetPr/>
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="16.8"/>
@@ -9225,6 +9225,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N103" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
